--- a/Project4910_M. Zhu(2001).xlsx
+++ b/Project4910_M. Zhu(2001).xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/remi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pjjg18\GitHub\matrixes-bo\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{127A7787-806F-424C-930B-282CDC13B46B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F652CA6-0C86-44FB-AB80-08301D58D04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16040" xr2:uid="{3B8EB99D-CB15-FB43-89F4-DFC6EC1A1E80}"/>
+    <workbookView xWindow="330" yWindow="1950" windowWidth="15870" windowHeight="18585" xr2:uid="{3B8EB99D-CB15-FB43-89F4-DFC6EC1A1E80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="170">
   <si>
     <t xml:space="preserve"> [1] 'Large dermal plates'</t>
   </si>
@@ -543,6 +543,9 @@
   </si>
   <si>
     <t>N;0=0;1=1;2=?</t>
+  </si>
+  <si>
+    <t>Ignored</t>
   </si>
 </sst>
 </file>
@@ -1036,20 +1039,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8727A672-4C87-1E44-AFC7-81EF2DA9A1C7}">
   <dimension ref="A1:D161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="83.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.83203125" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" customWidth="1"/>
+    <col min="1" max="1" width="83.375" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
     <col min="4" max="4" width="10.5" customWidth="1"/>
-    <col min="5" max="5" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="22" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
         <v>160</v>
       </c>
@@ -1061,7 +1064,7 @@
       </c>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -1083,7 +1086,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -1094,7 +1097,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -1105,7 +1108,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1116,7 +1119,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1138,7 +1141,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1149,7 +1152,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1160,7 +1163,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1171,7 +1174,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1182,7 +1185,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1193,7 +1196,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1204,7 +1207,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1215,7 +1218,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1226,7 +1229,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1237,7 +1240,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1248,7 +1251,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1259,7 +1262,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1270,7 +1273,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -1281,7 +1284,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -1292,7 +1295,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -1303,7 +1306,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -1314,7 +1317,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -1325,7 +1328,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -1336,7 +1339,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -1347,7 +1350,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -1358,7 +1361,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -1369,7 +1372,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -1380,7 +1383,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1394,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -1402,7 +1405,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -1413,7 +1416,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -1424,7 +1427,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -1435,7 +1438,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -1446,7 +1449,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -1457,7 +1460,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -1468,7 +1471,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -1479,7 +1482,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -1490,7 +1493,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -1501,7 +1504,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -1512,7 +1515,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -1523,7 +1526,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -1534,7 +1537,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -1545,7 +1548,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -1556,7 +1559,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -1567,7 +1570,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -1578,7 +1581,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -1589,7 +1592,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -1597,7 +1600,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -1608,7 +1611,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>50</v>
       </c>
@@ -1619,7 +1622,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>51</v>
       </c>
@@ -1630,7 +1633,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>52</v>
       </c>
@@ -1641,7 +1644,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>53</v>
       </c>
@@ -1652,7 +1655,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>54</v>
       </c>
@@ -1663,7 +1666,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>55</v>
       </c>
@@ -1674,7 +1677,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>56</v>
       </c>
@@ -1685,7 +1688,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>57</v>
       </c>
@@ -1696,7 +1699,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>58</v>
       </c>
@@ -1707,7 +1710,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>59</v>
       </c>
@@ -1718,7 +1721,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>60</v>
       </c>
@@ -1729,7 +1732,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>61</v>
       </c>
@@ -1740,7 +1743,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>62</v>
       </c>
@@ -1751,7 +1754,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>63</v>
       </c>
@@ -1762,7 +1765,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>64</v>
       </c>
@@ -1773,7 +1776,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>65</v>
       </c>
@@ -1784,7 +1787,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>66</v>
       </c>
@@ -1795,7 +1798,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>67</v>
       </c>
@@ -1806,7 +1809,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>68</v>
       </c>
@@ -1817,7 +1820,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>69</v>
       </c>
@@ -1828,7 +1831,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>70</v>
       </c>
@@ -1839,7 +1842,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>71</v>
       </c>
@@ -1850,7 +1853,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>72</v>
       </c>
@@ -1861,7 +1864,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>73</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>74</v>
       </c>
@@ -1883,7 +1886,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>75</v>
       </c>
@@ -1894,7 +1897,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>76</v>
       </c>
@@ -1905,7 +1908,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>77</v>
       </c>
@@ -1916,7 +1919,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>78</v>
       </c>
@@ -1927,7 +1930,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>79</v>
       </c>
@@ -1938,7 +1941,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>80</v>
       </c>
@@ -1949,7 +1952,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>81</v>
       </c>
@@ -1960,7 +1963,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>82</v>
       </c>
@@ -1971,7 +1974,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>83</v>
       </c>
@@ -1982,7 +1985,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>84</v>
       </c>
@@ -1993,7 +1996,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
         <v>85</v>
       </c>
@@ -2004,7 +2007,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
         <v>86</v>
       </c>
@@ -2015,7 +2018,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
         <v>87</v>
       </c>
@@ -2026,7 +2029,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
         <v>88</v>
       </c>
@@ -2037,7 +2040,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
         <v>89</v>
       </c>
@@ -2048,7 +2051,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
         <v>90</v>
       </c>
@@ -2059,7 +2062,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
         <v>91</v>
       </c>
@@ -2070,7 +2073,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
         <v>92</v>
       </c>
@@ -2081,7 +2084,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
         <v>93</v>
       </c>
@@ -2092,7 +2095,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
         <v>94</v>
       </c>
@@ -2103,7 +2106,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
         <v>95</v>
       </c>
@@ -2114,7 +2117,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
         <v>96</v>
       </c>
@@ -2125,7 +2128,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
         <v>97</v>
       </c>
@@ -2136,7 +2139,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
         <v>98</v>
       </c>
@@ -2147,7 +2150,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
         <v>99</v>
       </c>
@@ -2158,7 +2161,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
         <v>100</v>
       </c>
@@ -2169,7 +2172,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
         <v>101</v>
       </c>
@@ -2180,7 +2183,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
         <v>102</v>
       </c>
@@ -2191,7 +2194,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
         <v>103</v>
       </c>
@@ -2202,7 +2205,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
         <v>104</v>
       </c>
@@ -2213,7 +2216,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
         <v>105</v>
       </c>
@@ -2224,7 +2227,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
         <v>106</v>
       </c>
@@ -2232,7 +2235,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
         <v>107</v>
       </c>
@@ -2243,7 +2246,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
         <v>108</v>
       </c>
@@ -2254,7 +2257,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
         <v>109</v>
       </c>
@@ -2265,7 +2268,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
         <v>110</v>
       </c>
@@ -2276,7 +2279,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
         <v>111</v>
       </c>
@@ -2287,7 +2290,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
         <v>112</v>
       </c>
@@ -2298,7 +2301,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
         <v>113</v>
       </c>
@@ -2309,7 +2312,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
         <v>114</v>
       </c>
@@ -2320,7 +2323,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
         <v>115</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
         <v>116</v>
       </c>
@@ -2342,7 +2345,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
         <v>117</v>
       </c>
@@ -2353,7 +2356,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
         <v>118</v>
       </c>
@@ -2364,7 +2367,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
         <v>119</v>
       </c>
@@ -2375,7 +2378,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
         <v>120</v>
       </c>
@@ -2386,7 +2389,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
         <v>121</v>
       </c>
@@ -2397,7 +2400,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
         <v>122</v>
       </c>
@@ -2408,7 +2411,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
         <v>123</v>
       </c>
@@ -2419,7 +2422,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
         <v>124</v>
       </c>
@@ -2430,7 +2433,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
         <v>125</v>
       </c>
@@ -2441,7 +2444,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
         <v>126</v>
       </c>
@@ -2452,7 +2455,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
         <v>127</v>
       </c>
@@ -2463,7 +2466,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
         <v>128</v>
       </c>
@@ -2474,7 +2477,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
         <v>129</v>
       </c>
@@ -2485,7 +2488,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
         <v>130</v>
       </c>
@@ -2496,7 +2499,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
         <v>131</v>
       </c>
@@ -2507,7 +2510,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
         <v>132</v>
       </c>
@@ -2518,7 +2521,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
         <v>133</v>
       </c>
@@ -2529,7 +2532,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
         <v>134</v>
       </c>
@@ -2540,7 +2543,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
         <v>135</v>
       </c>
@@ -2551,7 +2554,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
         <v>136</v>
       </c>
@@ -2562,7 +2565,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
         <v>137</v>
       </c>
@@ -2573,7 +2576,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
         <v>138</v>
       </c>
@@ -2584,7 +2587,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
         <v>139</v>
       </c>
@@ -2595,7 +2598,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
         <v>140</v>
       </c>
@@ -2606,7 +2609,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
         <v>141</v>
       </c>
@@ -2617,7 +2620,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
         <v>142</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
         <v>143</v>
       </c>
@@ -2639,7 +2642,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
         <v>144</v>
       </c>
@@ -2650,7 +2653,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
         <v>145</v>
       </c>
@@ -2661,7 +2664,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
         <v>146</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
         <v>147</v>
       </c>
@@ -2683,7 +2686,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
         <v>148</v>
       </c>
@@ -2694,7 +2697,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
         <v>149</v>
       </c>
@@ -2705,7 +2708,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
         <v>150</v>
       </c>
@@ -2716,7 +2719,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
         <v>151</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
         <v>152</v>
       </c>
@@ -2738,7 +2741,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
         <v>153</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
         <v>154</v>
       </c>
@@ -2760,7 +2763,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
         <v>155</v>
       </c>
@@ -2771,7 +2774,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
         <v>156</v>
       </c>
@@ -2782,7 +2785,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
         <v>157</v>
       </c>
@@ -2793,23 +2796,23 @@
         <v>164</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C160" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C161" t="s">
         <v>166</v>
